--- a/upload/allowance_20250420_error_error_error.xlsx
+++ b/upload/allowance_20250420_error_error_error.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>errors</t>
   </si>
@@ -103,25 +103,49 @@
     <t>87637805</t>
   </si>
   <si>
+    <t>87637806</t>
+  </si>
+  <si>
     <t>TA20250508</t>
   </si>
   <si>
+    <t>TA20250509</t>
+  </si>
+  <si>
     <t>ABC公司</t>
   </si>
   <si>
     <t>AE00000009</t>
   </si>
   <si>
+    <t>AE00000010</t>
+  </si>
+  <si>
     <t>XYJZ1234</t>
   </si>
   <si>
     <t>ATT3648</t>
   </si>
   <si>
+    <t>ORE_DDA</t>
+  </si>
+  <si>
+    <t>asusdgi</t>
+  </si>
+  <si>
+    <t>dsfjh9s</t>
+  </si>
+  <si>
+    <t>dfjwo3</t>
+  </si>
+  <si>
     <t>個</t>
   </si>
   <si>
     <t>TW002025042087637805</t>
+  </si>
+  <si>
+    <t>TW002025042087637806</t>
   </si>
   <si>
     <t>65330715</t>
@@ -486,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>45767</v>
@@ -595,7 +619,7 @@
         <v>84834924</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>2581.9</v>
@@ -610,16 +634,16 @@
         <v>45786</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T2">
         <v>17000</v>
@@ -634,10 +658,10 @@
         <v>2550</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -654,7 +678,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>45767</v>
@@ -663,7 +687,7 @@
         <v>84834924</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>2581.9</v>
@@ -678,16 +702,16 @@
         <v>45786</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T3">
         <v>638</v>
@@ -702,12 +726,284 @@
         <v>31.9</v>
       </c>
       <c r="Y3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>11404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45767</v>
+      </c>
+      <c r="H4">
+        <v>84834924</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>11733</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45786</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4">
+        <v>3000</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>6000</v>
+      </c>
+      <c r="X4">
+        <v>300</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>11404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45767</v>
+      </c>
+      <c r="H5">
+        <v>84834924</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>300</v>
+      </c>
+      <c r="M5">
+        <v>11733</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45786</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5">
+        <v>3333</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3333</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>11404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45767</v>
+      </c>
+      <c r="H6">
+        <v>84834924</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>11733</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45786</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6">
+        <v>1200</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>1200</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>11404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45767</v>
+      </c>
+      <c r="H7">
+        <v>84834924</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <v>11733</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45786</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7">
+        <v>1200</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>1200</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7">
         <v>0</v>
       </c>
     </row>
